--- a/scrape_data.xlsx
+++ b/scrape_data.xlsx
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Security Guard Patrol Officer</t>
+          <t>Security Guard Patrol Officer (Page 1)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -483,14 +483,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Responsible for patrolling assigned sites using a motorbike, overseeing guard deployments, managing shift schedules, and ensuring that all guards are present.</t>
+          <t>Patrolling assigned sites, managing shifts and guard deployments.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Research Assistant</t>
+          <t>Research Assistant (Page 1)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -510,19 +510,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Involves population health research and programming, including on sexual and reproductive health and HIV/AIDS.</t>
+          <t>Conduct population health and HIV/AIDS research support.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Projects Sales Manager</t>
+          <t>Digital Marketing Attachee (Page 1)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saint-Gobain Gyproc Zimbabwe</t>
+          <t>Golden Knot Group</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,181 +532,181 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>April 25, 2025</t>
+          <t>April 16, 2025</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Drive project sales by developing and managing systems and processes for project pipeline sales growth, customer relationship management, and technical point of sale material development.</t>
+          <t>Support digital marketing, social media, and content creation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cash Transfer Services</t>
+          <t>Project Admin Assistant (Page 1)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Development Aid from People to People Zimbabwe (DAPP)</t>
+          <t>BRTI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Harare</t>
+          <t>Manicaland</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>April 25, 2025</t>
+          <t>May 12, 2025</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Seeking experienced cash transfer service providers for a four-month project in Epworth District, Harare, involving mobile cash transfers for 1,585 beneficiaries.</t>
+          <t>Assist in administration for HIV research projects.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Project Administration Assistant</t>
+          <t>Welder (Page 1)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Biomedical Research and Training Institute (BRTI)</t>
+          <t>Green Fuel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Manicaland</t>
+          <t>Chipinge</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>May 12, 2025</t>
+          <t>March 24, 2025</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Support scientific population-based research on the incidence and control of HIV and other communicable and non-communicable diseases in east Zimbabwe.</t>
+          <t>Welding for industrial and development projects.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Registered General Nurse</t>
+          <t>Security Guard Patrol Officer (Page 2)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AIDS Healthcare Foundation</t>
+          <t>Defcorp (Pvt) Ltd</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Beitbridge</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>April 25, 2025</t>
+          <t>April 23, 2025</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Provide HIV management in health facilities, partnering with the Ministry of Health and Child Care and local authorities to create Centers of Excellence.</t>
+          <t>Patrolling assigned sites, managing shifts and guard deployments.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Digital Marketing Attachee</t>
+          <t>Research Assistant (Page 2)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Golden Knot Group</t>
+          <t>CeSHHAR Zimbabwe</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Harare</t>
+          <t>Harare/Mt Darwin</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>April 16, 2025</t>
+          <t>April 21, 2025</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Support the existing team in digital marketing, content creation, and social media management.</t>
+          <t>Conduct population health and HIV/AIDS research support.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Boiler Maker</t>
+          <t>Digital Marketing Attachee (Page 2)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Green Fuel</t>
+          <t>Golden Knot Group</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chipinge</t>
+          <t>Harare</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>March 24, 2025</t>
+          <t>April 16, 2025</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Responsible for boiler making tasks within the Land Development Department, reporting to the Projects Manager.</t>
+          <t>Support digital marketing, social media, and content creation.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Artisan-Carpenter</t>
+          <t>Project Admin Assistant (Page 2)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Green Fuel</t>
+          <t>BRTI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Chipinge</t>
+          <t>Manicaland</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>March 24, 2025</t>
+          <t>May 12, 2025</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Responsible for building foundations, joining wood materials, and fitting and installing trim items for industrial and residential structures.</t>
+          <t>Assist in administration for HIV research projects.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Welder</t>
+          <t>Welder (Page 2)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Perform welding tasks within the Land Development Department, reporting to the Projects Manager.</t>
+          <t>Welding for industrial and development projects.</t>
         </is>
       </c>
     </row>
